--- a/out/Frisksnit/Frisksnit Rigshospitalet (RH), Centralkøkken - Økologi statistik februar 2024.xlsx
+++ b/out/Frisksnit/Frisksnit Rigshospitalet (RH), Centralkøkken - Økologi statistik februar 2024.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="356">
   <si>
     <t>1056930 - FRISKSNIT.dk</t>
   </si>
@@ -1081,7 +1081,7 @@
     <t>1% filler,15% containsTotalMass,15% containsSingleMass,15% containsProduct,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>1% filler,17% containsSingleMass,17% containsProduct,8% containsProductNr,17% containsAmount,17% SingleMassHeader,17% QuantityHeader,</t>
@@ -1096,25 +1096,16 @@
     <t>2% filler,21% containsSingleMass,21% containsProduct,10% containsProductNr,21% containsAmount,21% SingleMassHeader,</t>
   </si>
   <si>
-    <t>2% filler,21% containsSingleMass,10% containsProductNr,21% containsAmount,21% SingleMassHeader,21% QuantityHeader,</t>
-  </si>
-  <si>
-    <t>1% filler,15% containsTotalMass,15% containsSingleMass,7% containsProductNr,15% containsAmount,15% SingleMassHeader,15% TotalMassHeader,15% QuantityHeader,</t>
-  </si>
-  <si>
     <t xml:space="preserve">VARENR, </t>
   </si>
   <si>
-    <t xml:space="preserve">PRODUKT, VARENR, ANTAL, STK. MASSE, TOTAL MASSE </t>
+    <t xml:space="preserve">PRODUKT, </t>
   </si>
   <si>
     <t xml:space="preserve">ANTAL, </t>
   </si>
   <si>
     <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRODUKT, ANTAL, STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1134,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1212,7 +1203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -1233,16 +1224,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF747D9B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7499D2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C9CB1"/>
       </patternFill>
     </fill>
     <fill>
@@ -1361,14 +1342,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" applyFill="1" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" applyFill="1" borderId="0"/>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="11" applyFill="1" borderId="0" xfId="0"/>
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="14" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1377,24 +1350,34 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" applyNumberFormat="1" fontId="3" applyFont="1" fillId="14" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="19" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" applyFill="1" borderId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="20" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" applyFont="1" fillId="22" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="24" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="23" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="21" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -5449,7 +5432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2F7459-FF49-48C6-BC3F-2CAC66ED380B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FDC73E-7586-49F6-94C9-DF2EC83B265C}">
   <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5859,9 +5842,6 @@
       <c r="G18" s="32">
         <v>1786.05</v>
       </c>
-      <c r="H18" s="44" t="s">
-        <v>352</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="29" t="s">
@@ -5886,9 +5866,6 @@
       <c r="G19" s="32">
         <v>1424.28</v>
       </c>
-      <c r="H19" s="46" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="29" t="s">
@@ -8225,7 +8202,7 @@
       <c r="B117" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="C117" s="43" t="s">
+      <c r="C117" s="34" t="s">
         <v>249</v>
       </c>
       <c r="D117" s="26">
@@ -8249,7 +8226,7 @@
       <c r="B118" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="C118" s="43" t="s">
+      <c r="C118" s="34" t="s">
         <v>251</v>
       </c>
       <c r="D118" s="26">
@@ -8273,7 +8250,7 @@
       <c r="B119" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="C119" s="43" t="s">
+      <c r="C119" s="34" t="s">
         <v>253</v>
       </c>
       <c r="D119" s="26">
@@ -8297,7 +8274,7 @@
       <c r="B120" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C120" s="45" t="s">
+      <c r="C120" s="36" t="s">
         <v>255</v>
       </c>
       <c r="D120" s="26">
@@ -8321,7 +8298,7 @@
       <c r="B121" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="C121" s="45" t="s">
+      <c r="C121" s="36" t="s">
         <v>257</v>
       </c>
       <c r="D121" s="26">
@@ -8582,7 +8559,7 @@
       <c r="A132" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B132" s="47">
+      <c r="B132" s="43">
         <v>3040</v>
       </c>
       <c r="C132" s="3" t="s">
@@ -8590,11 +8567,11 @@
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="4"/>
-      <c r="F132" s="48">
+      <c r="F132" s="44">
         <f>SUM(F7:F131)</f>
         <v>2724.85</v>
       </c>
-      <c r="G132" s="48">
+      <c r="G132" s="44">
         <f>SUM(G7:G131)</f>
         <v>111224.22</v>
       </c>
@@ -9161,7 +9138,7 @@
       <c r="A157" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B157" s="47">
+      <c r="B157" s="43">
         <v>3040</v>
       </c>
       <c r="C157" s="3" t="s">
@@ -9169,11 +9146,11 @@
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="4"/>
-      <c r="F157" s="49">
+      <c r="F157" s="45">
         <f>SUM(F135:F156)</f>
         <v>1276</v>
       </c>
-      <c r="G157" s="48">
+      <c r="G157" s="44">
         <f>SUM(G135:G156)</f>
         <v>39692.139999999985</v>
       </c>
@@ -9191,11 +9168,11 @@
       <c r="E159" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="F159" s="48">
+      <c r="F159" s="44">
         <f>+F132+F157</f>
         <v>4000.85</v>
       </c>
-      <c r="G159" s="48">
+      <c r="G159" s="44">
         <f>+G132+G157</f>
         <v>150916.36</v>
       </c>
@@ -9208,11 +9185,11 @@
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="7"/>
-      <c r="F160" s="50">
+      <c r="F160" s="46">
         <f>+F157/F159</f>
         <v>0.31893222690178336</v>
       </c>
-      <c r="G160" s="50">
+      <c r="G160" s="46">
         <f>+G157/G159</f>
         <v>0.2630075360948276</v>
       </c>
@@ -9224,7 +9201,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF1D7E7-5FC9-4A98-AA5A-36F05EB124EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06513D4C-29F3-4FB5-BEC7-39F920DB3410}">
   <dimension ref="A1:G160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -9277,20 +9254,20 @@
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>354</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="F6" s="54" t="s">
         <v>355</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="F6" s="56" t="s">
-        <v>357</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
@@ -9300,19 +9277,19 @@
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="52" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="57">
-        <v>5</v>
-      </c>
-      <c r="F7" s="58">
+      <c r="E7" s="55">
+        <v>5</v>
+      </c>
+      <c r="F7" s="57">
         <f>+D7*E7</f>
         <v>5</v>
       </c>
@@ -9324,19 +9301,19 @@
       <c r="A8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="52" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="55">
         <v>4</v>
       </c>
-      <c r="F8" s="58">
+      <c r="F8" s="57">
         <f ref="F8:F71" t="shared" si="0">+D8*E8</f>
         <v>20</v>
       </c>
@@ -9348,19 +9325,19 @@
       <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="52" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="55">
         <v>13</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="57">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -9372,19 +9349,19 @@
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="52" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="57">
-        <v>1</v>
-      </c>
-      <c r="F10" s="58">
+      <c r="E10" s="55">
+        <v>1</v>
+      </c>
+      <c r="F10" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -9396,19 +9373,19 @@
       <c r="A11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="52" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="57">
-        <v>5</v>
-      </c>
-      <c r="F11" s="58">
+      <c r="E11" s="55">
+        <v>5</v>
+      </c>
+      <c r="F11" s="57">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -9420,19 +9397,19 @@
       <c r="A12" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="52" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="55">
         <v>47</v>
       </c>
-      <c r="F12" s="58">
+      <c r="F12" s="57">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
@@ -9444,19 +9421,19 @@
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="52" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="57">
-        <v>1</v>
-      </c>
-      <c r="F13" s="58">
+      <c r="E13" s="55">
+        <v>1</v>
+      </c>
+      <c r="F13" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -9468,19 +9445,19 @@
       <c r="A14" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="52" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="55">
         <v>23</v>
       </c>
-      <c r="F14" s="58">
+      <c r="F14" s="57">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
@@ -9492,19 +9469,19 @@
       <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="52" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="55">
         <v>7</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="57">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -9516,19 +9493,19 @@
       <c r="A16" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="52" t="s">
         <v>33</v>
       </c>
       <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="57">
-        <v>5</v>
-      </c>
-      <c r="F16" s="58">
+      <c r="E16" s="55">
+        <v>5</v>
+      </c>
+      <c r="F16" s="57">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -9540,19 +9517,19 @@
       <c r="A17" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="52" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="55">
         <v>24</v>
       </c>
-      <c r="F17" s="58">
+      <c r="F17" s="57">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -9564,19 +9541,19 @@
       <c r="A18" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="52" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="55">
         <v>7</v>
       </c>
-      <c r="F18" s="58">
+      <c r="F18" s="57">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -9588,19 +9565,19 @@
       <c r="A19" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="52" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="55">
         <v>26</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="57">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -9612,19 +9589,19 @@
       <c r="A20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="52" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="1">
         <v>5</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="55">
         <v>7</v>
       </c>
-      <c r="F20" s="58">
+      <c r="F20" s="57">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -9636,19 +9613,19 @@
       <c r="A21" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="52" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="55">
         <v>2</v>
       </c>
-      <c r="F21" s="58">
+      <c r="F21" s="57">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -9660,19 +9637,19 @@
       <c r="A22" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="52" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="55">
         <v>15</v>
       </c>
-      <c r="F22" s="58">
+      <c r="F22" s="57">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -9684,19 +9661,19 @@
       <c r="A23" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="52" t="s">
         <v>49</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="55">
         <v>7</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="57">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -9708,19 +9685,19 @@
       <c r="A24" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="52" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="55">
         <v>20</v>
       </c>
-      <c r="F24" s="58">
+      <c r="F24" s="57">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -9732,19 +9709,19 @@
       <c r="A25" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="52" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="55">
         <v>3</v>
       </c>
-      <c r="F25" s="58">
+      <c r="F25" s="57">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -9756,19 +9733,19 @@
       <c r="A26" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="52" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="55">
         <v>27</v>
       </c>
-      <c r="F26" s="58">
+      <c r="F26" s="57">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -9780,19 +9757,19 @@
       <c r="A27" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="52" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="1">
         <v>3</v>
       </c>
-      <c r="E27" s="57">
-        <v>1</v>
-      </c>
-      <c r="F27" s="58">
+      <c r="E27" s="55">
+        <v>1</v>
+      </c>
+      <c r="F27" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -9804,19 +9781,19 @@
       <c r="A28" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="52" t="s">
         <v>59</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="55">
         <v>14</v>
       </c>
-      <c r="F28" s="58">
+      <c r="F28" s="57">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
@@ -9828,19 +9805,19 @@
       <c r="A29" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="52" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="55">
         <v>16</v>
       </c>
-      <c r="F29" s="58">
+      <c r="F29" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -9852,19 +9829,19 @@
       <c r="A30" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="52" t="s">
         <v>63</v>
       </c>
       <c r="D30" s="1">
         <v>5</v>
       </c>
-      <c r="E30" s="57">
+      <c r="E30" s="55">
         <v>16</v>
       </c>
-      <c r="F30" s="58">
+      <c r="F30" s="57">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
@@ -9876,19 +9853,19 @@
       <c r="A31" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="52" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="57">
+      <c r="E31" s="55">
         <v>19</v>
       </c>
-      <c r="F31" s="58">
+      <c r="F31" s="57">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -9900,19 +9877,19 @@
       <c r="A32" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="52" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="1">
         <v>5</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="55">
         <v>2</v>
       </c>
-      <c r="F32" s="58">
+      <c r="F32" s="57">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -9924,19 +9901,19 @@
       <c r="A33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="52" t="s">
         <v>69</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="55">
         <v>8</v>
       </c>
-      <c r="F33" s="58">
+      <c r="F33" s="57">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -9948,19 +9925,19 @@
       <c r="A34" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="52" t="s">
         <v>71</v>
       </c>
       <c r="D34" s="1">
         <v>3</v>
       </c>
-      <c r="E34" s="57">
-        <v>1</v>
-      </c>
-      <c r="F34" s="58">
+      <c r="E34" s="55">
+        <v>1</v>
+      </c>
+      <c r="F34" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -9972,19 +9949,19 @@
       <c r="A35" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="52" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="1">
         <v>0.35</v>
       </c>
-      <c r="E35" s="57">
-        <v>1</v>
-      </c>
-      <c r="F35" s="58">
+      <c r="E35" s="55">
+        <v>1</v>
+      </c>
+      <c r="F35" s="57">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
@@ -9996,19 +9973,19 @@
       <c r="A36" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="52" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="55">
         <v>9</v>
       </c>
-      <c r="F36" s="58">
+      <c r="F36" s="57">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -10020,19 +9997,19 @@
       <c r="A37" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="52" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="1">
         <v>5</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="55">
         <v>4</v>
       </c>
-      <c r="F37" s="58">
+      <c r="F37" s="57">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10044,19 +10021,19 @@
       <c r="A38" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="52" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="55">
         <v>3</v>
       </c>
-      <c r="F38" s="58">
+      <c r="F38" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -10068,19 +10045,19 @@
       <c r="A39" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="52" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="1">
         <v>5</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="55">
         <v>4</v>
       </c>
-      <c r="F39" s="58">
+      <c r="F39" s="57">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10092,19 +10069,19 @@
       <c r="A40" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="52" t="s">
         <v>84</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="55">
         <v>2</v>
       </c>
-      <c r="F40" s="58">
+      <c r="F40" s="57">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -10116,19 +10093,19 @@
       <c r="A41" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="52" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="55">
         <v>16</v>
       </c>
-      <c r="F41" s="58">
+      <c r="F41" s="57">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -10140,19 +10117,19 @@
       <c r="A42" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="52" t="s">
         <v>88</v>
       </c>
       <c r="D42" s="1">
         <v>5</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="55">
         <v>21</v>
       </c>
-      <c r="F42" s="58">
+      <c r="F42" s="57">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -10164,19 +10141,19 @@
       <c r="A43" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="52" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E43" s="57">
+      <c r="E43" s="55">
         <v>18</v>
       </c>
-      <c r="F43" s="58">
+      <c r="F43" s="57">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -10188,19 +10165,19 @@
       <c r="A44" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="52" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="55">
         <v>36</v>
       </c>
-      <c r="F44" s="58">
+      <c r="F44" s="57">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
@@ -10212,19 +10189,19 @@
       <c r="A45" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B45" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="52" t="s">
         <v>94</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="55">
         <v>7</v>
       </c>
-      <c r="F45" s="58">
+      <c r="F45" s="57">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -10236,19 +10213,19 @@
       <c r="A46" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="53" t="s">
+      <c r="B46" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="52" t="s">
         <v>96</v>
       </c>
       <c r="D46" s="1">
         <v>5</v>
       </c>
-      <c r="E46" s="57">
-        <v>1</v>
-      </c>
-      <c r="F46" s="58">
+      <c r="E46" s="55">
+        <v>1</v>
+      </c>
+      <c r="F46" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10260,19 +10237,19 @@
       <c r="A47" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="52" t="s">
         <v>98</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="E47" s="57">
-        <v>1</v>
-      </c>
-      <c r="F47" s="58">
+      <c r="E47" s="55">
+        <v>1</v>
+      </c>
+      <c r="F47" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10284,19 +10261,19 @@
       <c r="A48" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="52" t="s">
         <v>100</v>
       </c>
       <c r="D48" s="1">
         <v>5</v>
       </c>
-      <c r="E48" s="57">
+      <c r="E48" s="55">
         <v>4</v>
       </c>
-      <c r="F48" s="58">
+      <c r="F48" s="57">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -10308,19 +10285,19 @@
       <c r="A49" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="52" t="s">
         <v>103</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="E49" s="57">
+      <c r="E49" s="55">
         <v>33</v>
       </c>
-      <c r="F49" s="58">
+      <c r="F49" s="57">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -10332,19 +10309,19 @@
       <c r="A50" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="52" t="s">
         <v>105</v>
       </c>
       <c r="D50" s="1">
         <v>5</v>
       </c>
-      <c r="E50" s="57">
+      <c r="E50" s="55">
         <v>7</v>
       </c>
-      <c r="F50" s="58">
+      <c r="F50" s="57">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -10356,19 +10333,19 @@
       <c r="A51" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="52" t="s">
         <v>107</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="E51" s="57">
+      <c r="E51" s="55">
         <v>10</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="57">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -10380,19 +10357,19 @@
       <c r="A52" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="52" t="s">
         <v>109</v>
       </c>
       <c r="D52" s="1">
         <v>5</v>
       </c>
-      <c r="E52" s="57">
-        <v>1</v>
-      </c>
-      <c r="F52" s="58">
+      <c r="E52" s="55">
+        <v>1</v>
+      </c>
+      <c r="F52" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10404,19 +10381,19 @@
       <c r="A53" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="52" t="s">
         <v>111</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
-      <c r="E53" s="57">
-        <v>5</v>
-      </c>
-      <c r="F53" s="58">
+      <c r="E53" s="55">
+        <v>5</v>
+      </c>
+      <c r="F53" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10428,19 +10405,19 @@
       <c r="A54" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="55" t="s">
+      <c r="C54" s="52" t="s">
         <v>113</v>
       </c>
       <c r="D54" s="1">
         <v>3</v>
       </c>
-      <c r="E54" s="57">
+      <c r="E54" s="55">
         <v>3</v>
       </c>
-      <c r="F54" s="58">
+      <c r="F54" s="57">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -10452,19 +10429,19 @@
       <c r="A55" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="52" t="s">
         <v>115</v>
       </c>
       <c r="D55" s="1">
         <v>5</v>
       </c>
-      <c r="E55" s="57">
+      <c r="E55" s="55">
         <v>7</v>
       </c>
-      <c r="F55" s="58">
+      <c r="F55" s="57">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -10476,19 +10453,19 @@
       <c r="A56" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="52" t="s">
         <v>118</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="57">
+      <c r="E56" s="55">
         <v>18</v>
       </c>
-      <c r="F56" s="58">
+      <c r="F56" s="57">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -10500,19 +10477,19 @@
       <c r="A57" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="52" t="s">
         <v>120</v>
       </c>
       <c r="D57" s="1">
         <v>5</v>
       </c>
-      <c r="E57" s="57">
+      <c r="E57" s="55">
         <v>6</v>
       </c>
-      <c r="F57" s="58">
+      <c r="F57" s="57">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -10524,19 +10501,19 @@
       <c r="A58" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="55" t="s">
+      <c r="C58" s="52" t="s">
         <v>122</v>
       </c>
       <c r="D58" s="1">
         <v>5</v>
       </c>
-      <c r="E58" s="57">
+      <c r="E58" s="55">
         <v>2</v>
       </c>
-      <c r="F58" s="58">
+      <c r="F58" s="57">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -10548,19 +10525,19 @@
       <c r="A59" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="52" t="s">
         <v>125</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="57">
+      <c r="E59" s="55">
         <v>8</v>
       </c>
-      <c r="F59" s="58">
+      <c r="F59" s="57">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -10572,19 +10549,19 @@
       <c r="A60" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C60" s="55" t="s">
+      <c r="C60" s="52" t="s">
         <v>127</v>
       </c>
       <c r="D60" s="1">
         <v>5</v>
       </c>
-      <c r="E60" s="57">
+      <c r="E60" s="55">
         <v>6</v>
       </c>
-      <c r="F60" s="58">
+      <c r="F60" s="57">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -10596,19 +10573,19 @@
       <c r="A61" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="55" t="s">
+      <c r="C61" s="52" t="s">
         <v>129</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
-      <c r="E61" s="57">
+      <c r="E61" s="55">
         <v>8</v>
       </c>
-      <c r="F61" s="58">
+      <c r="F61" s="57">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -10620,19 +10597,19 @@
       <c r="A62" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="53" t="s">
+      <c r="B62" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C62" s="55" t="s">
+      <c r="C62" s="52" t="s">
         <v>131</v>
       </c>
       <c r="D62" s="1">
         <v>5</v>
       </c>
-      <c r="E62" s="57">
-        <v>1</v>
-      </c>
-      <c r="F62" s="58">
+      <c r="E62" s="55">
+        <v>1</v>
+      </c>
+      <c r="F62" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10644,19 +10621,19 @@
       <c r="A63" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="53" t="s">
+      <c r="B63" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C63" s="55" t="s">
+      <c r="C63" s="52" t="s">
         <v>134</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
       </c>
-      <c r="E63" s="57">
+      <c r="E63" s="55">
         <v>21</v>
       </c>
-      <c r="F63" s="58">
+      <c r="F63" s="57">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -10668,19 +10645,19 @@
       <c r="A64" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B64" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C64" s="55" t="s">
+      <c r="C64" s="52" t="s">
         <v>136</v>
       </c>
       <c r="D64" s="1">
         <v>5</v>
       </c>
-      <c r="E64" s="57">
-        <v>1</v>
-      </c>
-      <c r="F64" s="58">
+      <c r="E64" s="55">
+        <v>1</v>
+      </c>
+      <c r="F64" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10692,19 +10669,19 @@
       <c r="A65" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="52" t="s">
         <v>138</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
       </c>
-      <c r="E65" s="57">
-        <v>5</v>
-      </c>
-      <c r="F65" s="58">
+      <c r="E65" s="55">
+        <v>5</v>
+      </c>
+      <c r="F65" s="57">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -10716,19 +10693,19 @@
       <c r="A66" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="53" t="s">
+      <c r="B66" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="55" t="s">
+      <c r="C66" s="52" t="s">
         <v>140</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
-      <c r="E66" s="57">
-        <v>1</v>
-      </c>
-      <c r="F66" s="58">
+      <c r="E66" s="55">
+        <v>1</v>
+      </c>
+      <c r="F66" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10740,19 +10717,19 @@
       <c r="A67" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="53" t="s">
+      <c r="B67" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C67" s="55" t="s">
+      <c r="C67" s="52" t="s">
         <v>142</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
-      <c r="E67" s="57">
-        <v>1</v>
-      </c>
-      <c r="F67" s="58">
+      <c r="E67" s="55">
+        <v>1</v>
+      </c>
+      <c r="F67" s="57">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10764,19 +10741,19 @@
       <c r="A68" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="53" t="s">
+      <c r="B68" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="55" t="s">
+      <c r="C68" s="52" t="s">
         <v>144</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
-      <c r="E68" s="57">
+      <c r="E68" s="55">
         <v>40</v>
       </c>
-      <c r="F68" s="58">
+      <c r="F68" s="57">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
@@ -10788,19 +10765,19 @@
       <c r="A69" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="53" t="s">
+      <c r="B69" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="55" t="s">
+      <c r="C69" s="52" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="1">
         <v>5</v>
       </c>
-      <c r="E69" s="57">
+      <c r="E69" s="55">
         <v>3</v>
       </c>
-      <c r="F69" s="58">
+      <c r="F69" s="57">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -10812,19 +10789,19 @@
       <c r="A70" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B70" s="53" t="s">
+      <c r="B70" s="49" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="52" t="s">
         <v>148</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
       </c>
-      <c r="E70" s="57">
+      <c r="E70" s="55">
         <v>24</v>
       </c>
-      <c r="F70" s="58">
+      <c r="F70" s="57">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -10836,19 +10813,19 @@
       <c r="A71" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="55" t="s">
+      <c r="C71" s="52" t="s">
         <v>150</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
       </c>
-      <c r="E71" s="57">
+      <c r="E71" s="55">
         <v>10</v>
       </c>
-      <c r="F71" s="58">
+      <c r="F71" s="57">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
@@ -10860,19 +10837,19 @@
       <c r="A72" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="52" t="s">
         <v>152</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
-      <c r="E72" s="57">
+      <c r="E72" s="55">
         <v>4</v>
       </c>
-      <c r="F72" s="58">
+      <c r="F72" s="57">
         <f ref="F72:F131" t="shared" si="1">+D72*E72</f>
         <v>4</v>
       </c>
@@ -10884,19 +10861,19 @@
       <c r="A73" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="55" t="s">
+      <c r="C73" s="52" t="s">
         <v>154</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
       </c>
-      <c r="E73" s="57">
-        <v>1</v>
-      </c>
-      <c r="F73" s="58">
+      <c r="E73" s="55">
+        <v>1</v>
+      </c>
+      <c r="F73" s="57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -10908,19 +10885,19 @@
       <c r="A74" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="53" t="s">
+      <c r="B74" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="C74" s="55" t="s">
+      <c r="C74" s="52" t="s">
         <v>156</v>
       </c>
       <c r="D74" s="1">
         <v>5</v>
       </c>
-      <c r="E74" s="57">
-        <v>1</v>
-      </c>
-      <c r="F74" s="58">
+      <c r="E74" s="55">
+        <v>1</v>
+      </c>
+      <c r="F74" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -10932,19 +10909,19 @@
       <c r="A75" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="53" t="s">
+      <c r="B75" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="55" t="s">
+      <c r="C75" s="52" t="s">
         <v>159</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
       </c>
-      <c r="E75" s="57">
+      <c r="E75" s="55">
         <v>7</v>
       </c>
-      <c r="F75" s="58">
+      <c r="F75" s="57">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -10956,19 +10933,19 @@
       <c r="A76" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B76" s="53" t="s">
+      <c r="B76" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C76" s="52" t="s">
         <v>161</v>
       </c>
       <c r="D76" s="1">
         <v>5</v>
       </c>
-      <c r="E76" s="57">
-        <v>1</v>
-      </c>
-      <c r="F76" s="58">
+      <c r="E76" s="55">
+        <v>1</v>
+      </c>
+      <c r="F76" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -10980,19 +10957,19 @@
       <c r="A77" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B77" s="53" t="s">
+      <c r="B77" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="C77" s="55" t="s">
+      <c r="C77" s="52" t="s">
         <v>163</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
       </c>
-      <c r="E77" s="57">
+      <c r="E77" s="55">
         <v>66</v>
       </c>
-      <c r="F77" s="58">
+      <c r="F77" s="57">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
@@ -11004,19 +10981,19 @@
       <c r="A78" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C78" s="52" t="s">
         <v>165</v>
       </c>
       <c r="D78" s="1">
         <v>5</v>
       </c>
-      <c r="E78" s="57">
+      <c r="E78" s="55">
         <v>2</v>
       </c>
-      <c r="F78" s="58">
+      <c r="F78" s="57">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -11028,19 +11005,19 @@
       <c r="A79" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="53" t="s">
+      <c r="B79" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="52" t="s">
         <v>167</v>
       </c>
       <c r="D79" s="1">
         <v>0.5</v>
       </c>
-      <c r="E79" s="57">
-        <v>1</v>
-      </c>
-      <c r="F79" s="58">
+      <c r="E79" s="55">
+        <v>1</v>
+      </c>
+      <c r="F79" s="57">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -11052,19 +11029,19 @@
       <c r="A80" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B80" s="53" t="s">
+      <c r="B80" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="C80" s="55" t="s">
+      <c r="C80" s="52" t="s">
         <v>169</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
       </c>
-      <c r="E80" s="57">
+      <c r="E80" s="55">
         <v>21</v>
       </c>
-      <c r="F80" s="58">
+      <c r="F80" s="57">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -11076,19 +11053,19 @@
       <c r="A81" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B81" s="53" t="s">
+      <c r="B81" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="C81" s="55" t="s">
+      <c r="C81" s="52" t="s">
         <v>171</v>
       </c>
       <c r="D81" s="1">
         <v>5</v>
       </c>
-      <c r="E81" s="57">
-        <v>1</v>
-      </c>
-      <c r="F81" s="58">
+      <c r="E81" s="55">
+        <v>1</v>
+      </c>
+      <c r="F81" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -11100,19 +11077,19 @@
       <c r="A82" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B82" s="53" t="s">
+      <c r="B82" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="C82" s="55" t="s">
+      <c r="C82" s="52" t="s">
         <v>174</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
       </c>
-      <c r="E82" s="57">
+      <c r="E82" s="55">
         <v>12</v>
       </c>
-      <c r="F82" s="58">
+      <c r="F82" s="57">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -11124,19 +11101,19 @@
       <c r="A83" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B83" s="53" t="s">
+      <c r="B83" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="52" t="s">
         <v>176</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
       </c>
-      <c r="E83" s="57">
+      <c r="E83" s="55">
         <v>25</v>
       </c>
-      <c r="F83" s="58">
+      <c r="F83" s="57">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -11148,19 +11125,19 @@
       <c r="A84" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B84" s="53" t="s">
+      <c r="B84" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C84" s="55" t="s">
+      <c r="C84" s="52" t="s">
         <v>178</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
       </c>
-      <c r="E84" s="57">
-        <v>1</v>
-      </c>
-      <c r="F84" s="58">
+      <c r="E84" s="55">
+        <v>1</v>
+      </c>
+      <c r="F84" s="57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11172,19 +11149,19 @@
       <c r="A85" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B85" s="53" t="s">
+      <c r="B85" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="C85" s="55" t="s">
+      <c r="C85" s="52" t="s">
         <v>180</v>
       </c>
       <c r="D85" s="1">
         <v>5</v>
       </c>
-      <c r="E85" s="57">
+      <c r="E85" s="55">
         <v>4</v>
       </c>
-      <c r="F85" s="58">
+      <c r="F85" s="57">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -11196,19 +11173,19 @@
       <c r="A86" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="53" t="s">
+      <c r="B86" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="C86" s="55" t="s">
+      <c r="C86" s="52" t="s">
         <v>182</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
       </c>
-      <c r="E86" s="57">
+      <c r="E86" s="55">
         <v>4</v>
       </c>
-      <c r="F86" s="58">
+      <c r="F86" s="57">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -11220,19 +11197,19 @@
       <c r="A87" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="C87" s="55" t="s">
+      <c r="C87" s="52" t="s">
         <v>184</v>
       </c>
       <c r="D87" s="1">
         <v>5</v>
       </c>
-      <c r="E87" s="57">
+      <c r="E87" s="55">
         <v>11</v>
       </c>
-      <c r="F87" s="58">
+      <c r="F87" s="57">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -11244,19 +11221,19 @@
       <c r="A88" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B88" s="53" t="s">
+      <c r="B88" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="C88" s="55" t="s">
+      <c r="C88" s="52" t="s">
         <v>186</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
       </c>
-      <c r="E88" s="57">
+      <c r="E88" s="55">
         <v>42</v>
       </c>
-      <c r="F88" s="58">
+      <c r="F88" s="57">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
@@ -11268,19 +11245,19 @@
       <c r="A89" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B89" s="53" t="s">
+      <c r="B89" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="C89" s="55" t="s">
+      <c r="C89" s="52" t="s">
         <v>188</v>
       </c>
       <c r="D89" s="1">
         <v>3</v>
       </c>
-      <c r="E89" s="57">
-        <v>1</v>
-      </c>
-      <c r="F89" s="58">
+      <c r="E89" s="55">
+        <v>1</v>
+      </c>
+      <c r="F89" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -11292,19 +11269,19 @@
       <c r="A90" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B90" s="53" t="s">
+      <c r="B90" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="C90" s="55" t="s">
+      <c r="C90" s="52" t="s">
         <v>190</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
       </c>
-      <c r="E90" s="57">
+      <c r="E90" s="55">
         <v>6</v>
       </c>
-      <c r="F90" s="58">
+      <c r="F90" s="57">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -11316,19 +11293,19 @@
       <c r="A91" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B91" s="53" t="s">
+      <c r="B91" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="C91" s="55" t="s">
+      <c r="C91" s="52" t="s">
         <v>192</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
       </c>
-      <c r="E91" s="57">
+      <c r="E91" s="55">
         <v>10</v>
       </c>
-      <c r="F91" s="58">
+      <c r="F91" s="57">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -11340,19 +11317,19 @@
       <c r="A92" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B92" s="53" t="s">
+      <c r="B92" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="55" t="s">
+      <c r="C92" s="52" t="s">
         <v>194</v>
       </c>
       <c r="D92" s="1">
         <v>5</v>
       </c>
-      <c r="E92" s="57">
+      <c r="E92" s="55">
         <v>18</v>
       </c>
-      <c r="F92" s="58">
+      <c r="F92" s="57">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -11364,19 +11341,19 @@
       <c r="A93" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="C93" s="55" t="s">
+      <c r="C93" s="52" t="s">
         <v>197</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
       </c>
-      <c r="E93" s="57">
+      <c r="E93" s="55">
         <v>7</v>
       </c>
-      <c r="F93" s="58">
+      <c r="F93" s="57">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -11388,19 +11365,19 @@
       <c r="A94" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B94" s="53" t="s">
+      <c r="B94" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="55" t="s">
+      <c r="C94" s="52" t="s">
         <v>199</v>
       </c>
       <c r="D94" s="1">
         <v>5</v>
       </c>
-      <c r="E94" s="57">
-        <v>1</v>
-      </c>
-      <c r="F94" s="58">
+      <c r="E94" s="55">
+        <v>1</v>
+      </c>
+      <c r="F94" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -11412,19 +11389,19 @@
       <c r="A95" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B95" s="53" t="s">
+      <c r="B95" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="C95" s="55" t="s">
+      <c r="C95" s="52" t="s">
         <v>201</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
       </c>
-      <c r="E95" s="57">
+      <c r="E95" s="55">
         <v>33</v>
       </c>
-      <c r="F95" s="58">
+      <c r="F95" s="57">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -11436,19 +11413,19 @@
       <c r="A96" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="C96" s="55" t="s">
+      <c r="C96" s="52" t="s">
         <v>203</v>
       </c>
       <c r="D96" s="1">
         <v>5</v>
       </c>
-      <c r="E96" s="57">
-        <v>1</v>
-      </c>
-      <c r="F96" s="58">
+      <c r="E96" s="55">
+        <v>1</v>
+      </c>
+      <c r="F96" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -11460,19 +11437,19 @@
       <c r="A97" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B97" s="53" t="s">
+      <c r="B97" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="C97" s="55" t="s">
+      <c r="C97" s="52" t="s">
         <v>205</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
       </c>
-      <c r="E97" s="57">
-        <v>5</v>
-      </c>
-      <c r="F97" s="58">
+      <c r="E97" s="55">
+        <v>5</v>
+      </c>
+      <c r="F97" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -11484,19 +11461,19 @@
       <c r="A98" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C98" s="55" t="s">
+      <c r="C98" s="52" t="s">
         <v>207</v>
       </c>
       <c r="D98" s="1">
         <v>5</v>
       </c>
-      <c r="E98" s="57">
+      <c r="E98" s="55">
         <v>3</v>
       </c>
-      <c r="F98" s="58">
+      <c r="F98" s="57">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -11508,19 +11485,19 @@
       <c r="A99" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="C99" s="55" t="s">
+      <c r="C99" s="52" t="s">
         <v>209</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
       </c>
-      <c r="E99" s="57">
-        <v>1</v>
-      </c>
-      <c r="F99" s="58">
+      <c r="E99" s="55">
+        <v>1</v>
+      </c>
+      <c r="F99" s="57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11532,19 +11509,19 @@
       <c r="A100" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B100" s="53" t="s">
+      <c r="B100" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="C100" s="55" t="s">
+      <c r="C100" s="52" t="s">
         <v>211</v>
       </c>
       <c r="D100" s="1">
         <v>5</v>
       </c>
-      <c r="E100" s="57">
-        <v>1</v>
-      </c>
-      <c r="F100" s="58">
+      <c r="E100" s="55">
+        <v>1</v>
+      </c>
+      <c r="F100" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -11556,19 +11533,19 @@
       <c r="A101" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="C101" s="55" t="s">
+      <c r="C101" s="52" t="s">
         <v>213</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
       </c>
-      <c r="E101" s="57">
-        <v>1</v>
-      </c>
-      <c r="F101" s="58">
+      <c r="E101" s="55">
+        <v>1</v>
+      </c>
+      <c r="F101" s="57">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -11580,19 +11557,19 @@
       <c r="A102" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B102" s="53" t="s">
+      <c r="B102" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="C102" s="55" t="s">
+      <c r="C102" s="52" t="s">
         <v>215</v>
       </c>
       <c r="D102" s="1">
         <v>5</v>
       </c>
-      <c r="E102" s="57">
-        <v>1</v>
-      </c>
-      <c r="F102" s="58">
+      <c r="E102" s="55">
+        <v>1</v>
+      </c>
+      <c r="F102" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -11604,19 +11581,19 @@
       <c r="A103" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B103" s="53" t="s">
+      <c r="B103" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="C103" s="55" t="s">
+      <c r="C103" s="52" t="s">
         <v>217</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
       </c>
-      <c r="E103" s="57">
-        <v>5</v>
-      </c>
-      <c r="F103" s="58">
+      <c r="E103" s="55">
+        <v>5</v>
+      </c>
+      <c r="F103" s="57">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -11628,19 +11605,19 @@
       <c r="A104" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B104" s="53" t="s">
+      <c r="B104" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="C104" s="55" t="s">
+      <c r="C104" s="52" t="s">
         <v>219</v>
       </c>
       <c r="D104" s="1">
         <v>5</v>
       </c>
-      <c r="E104" s="57">
+      <c r="E104" s="55">
         <v>3</v>
       </c>
-      <c r="F104" s="58">
+      <c r="F104" s="57">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -11652,19 +11629,19 @@
       <c r="A105" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B105" s="53" t="s">
+      <c r="B105" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C105" s="55" t="s">
+      <c r="C105" s="52" t="s">
         <v>221</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
       </c>
-      <c r="E105" s="57">
+      <c r="E105" s="55">
         <v>3</v>
       </c>
-      <c r="F105" s="58">
+      <c r="F105" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -11676,19 +11653,19 @@
       <c r="A106" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B106" s="53" t="s">
+      <c r="B106" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="C106" s="55" t="s">
+      <c r="C106" s="52" t="s">
         <v>223</v>
       </c>
       <c r="D106" s="1">
         <v>5</v>
       </c>
-      <c r="E106" s="57">
+      <c r="E106" s="55">
         <v>2</v>
       </c>
-      <c r="F106" s="58">
+      <c r="F106" s="57">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -11700,19 +11677,19 @@
       <c r="A107" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B107" s="53" t="s">
+      <c r="B107" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="C107" s="55" t="s">
+      <c r="C107" s="52" t="s">
         <v>226</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
       </c>
-      <c r="E107" s="57">
+      <c r="E107" s="55">
         <v>83</v>
       </c>
-      <c r="F107" s="58">
+      <c r="F107" s="57">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
@@ -11724,19 +11701,19 @@
       <c r="A108" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B108" s="53" t="s">
+      <c r="B108" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="C108" s="55" t="s">
+      <c r="C108" s="52" t="s">
         <v>228</v>
       </c>
       <c r="D108" s="1">
         <v>5</v>
       </c>
-      <c r="E108" s="57">
+      <c r="E108" s="55">
         <v>6</v>
       </c>
-      <c r="F108" s="58">
+      <c r="F108" s="57">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
@@ -11748,19 +11725,19 @@
       <c r="A109" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B109" s="53" t="s">
+      <c r="B109" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="C109" s="55" t="s">
+      <c r="C109" s="52" t="s">
         <v>231</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
       </c>
-      <c r="E109" s="57">
+      <c r="E109" s="55">
         <v>7</v>
       </c>
-      <c r="F109" s="58">
+      <c r="F109" s="57">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -11772,19 +11749,19 @@
       <c r="A110" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B110" s="53" t="s">
+      <c r="B110" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="C110" s="55" t="s">
+      <c r="C110" s="52" t="s">
         <v>233</v>
       </c>
       <c r="D110" s="1">
         <v>5</v>
       </c>
-      <c r="E110" s="57">
-        <v>5</v>
-      </c>
-      <c r="F110" s="58">
+      <c r="E110" s="55">
+        <v>5</v>
+      </c>
+      <c r="F110" s="57">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -11796,19 +11773,19 @@
       <c r="A111" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="C111" s="55" t="s">
+      <c r="C111" s="52" t="s">
         <v>235</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
       </c>
-      <c r="E111" s="57">
+      <c r="E111" s="55">
         <v>27</v>
       </c>
-      <c r="F111" s="58">
+      <c r="F111" s="57">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
@@ -11820,19 +11797,19 @@
       <c r="A112" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B112" s="53" t="s">
+      <c r="B112" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="C112" s="55" t="s">
+      <c r="C112" s="52" t="s">
         <v>237</v>
       </c>
       <c r="D112" s="1">
         <v>3</v>
       </c>
-      <c r="E112" s="57">
-        <v>5</v>
-      </c>
-      <c r="F112" s="58">
+      <c r="E112" s="55">
+        <v>5</v>
+      </c>
+      <c r="F112" s="57">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -11844,19 +11821,19 @@
       <c r="A113" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B113" s="53" t="s">
+      <c r="B113" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="C113" s="55" t="s">
+      <c r="C113" s="52" t="s">
         <v>239</v>
       </c>
       <c r="D113" s="1">
         <v>5</v>
       </c>
-      <c r="E113" s="57">
+      <c r="E113" s="55">
         <v>9</v>
       </c>
-      <c r="F113" s="58">
+      <c r="F113" s="57">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
@@ -11868,19 +11845,19 @@
       <c r="A114" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B114" s="53" t="s">
+      <c r="B114" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="C114" s="55" t="s">
+      <c r="C114" s="52" t="s">
         <v>241</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
       </c>
-      <c r="E114" s="57">
+      <c r="E114" s="55">
         <v>3</v>
       </c>
-      <c r="F114" s="58">
+      <c r="F114" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -11892,19 +11869,19 @@
       <c r="A115" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B115" s="53" t="s">
+      <c r="B115" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="C115" s="55" t="s">
+      <c r="C115" s="52" t="s">
         <v>244</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
       </c>
-      <c r="E115" s="57">
+      <c r="E115" s="55">
         <v>31</v>
       </c>
-      <c r="F115" s="58">
+      <c r="F115" s="57">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
@@ -11916,19 +11893,19 @@
       <c r="A116" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="49" t="s">
         <v>245</v>
       </c>
-      <c r="C116" s="55" t="s">
+      <c r="C116" s="52" t="s">
         <v>246</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
       </c>
-      <c r="E116" s="57">
+      <c r="E116" s="55">
         <v>53</v>
       </c>
-      <c r="F116" s="58">
+      <c r="F116" s="57">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
@@ -11940,19 +11917,19 @@
       <c r="A117" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="52" t="s">
         <v>249</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E117" s="55">
         <v>22</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F117" s="57">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -11964,19 +11941,19 @@
       <c r="A118" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="C118" s="52" t="s">
         <v>251</v>
       </c>
       <c r="D118" s="1">
         <v>3</v>
       </c>
-      <c r="E118" s="5">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5">
+      <c r="E118" s="55">
+        <v>1</v>
+      </c>
+      <c r="F118" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -11988,19 +11965,19 @@
       <c r="A119" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="52" t="s">
         <v>253</v>
       </c>
       <c r="D119" s="1">
         <v>5</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E119" s="55">
         <v>12</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F119" s="57">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
@@ -12012,19 +11989,19 @@
       <c r="A120" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="52" t="s">
         <v>255</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
       </c>
-      <c r="E120" s="5">
+      <c r="E120" s="55">
         <v>22</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F120" s="57">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -12036,19 +12013,19 @@
       <c r="A121" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="C121" s="52" t="s">
         <v>257</v>
       </c>
       <c r="D121" s="1">
         <v>5</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E121" s="55">
         <v>17</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F121" s="57">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
@@ -12060,19 +12037,19 @@
       <c r="A122" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C122" s="52" t="s">
         <v>260</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E122" s="55">
         <v>4</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F122" s="57">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -12084,19 +12061,19 @@
       <c r="A123" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="52" t="s">
         <v>263</v>
       </c>
       <c r="D123" s="1">
         <v>3</v>
       </c>
-      <c r="E123" s="5">
+      <c r="E123" s="55">
         <v>2</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F123" s="57">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -12108,19 +12085,19 @@
       <c r="A124" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="52" t="s">
         <v>265</v>
       </c>
       <c r="D124" s="1">
         <v>5</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E124" s="55">
         <v>4</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F124" s="57">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -12132,19 +12109,19 @@
       <c r="A125" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C125" s="52" t="s">
         <v>267</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
       </c>
-      <c r="E125" s="5">
+      <c r="E125" s="55">
         <v>25</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F125" s="57">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -12156,19 +12133,19 @@
       <c r="A126" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C126" s="52" t="s">
         <v>269</v>
       </c>
       <c r="D126" s="1">
         <v>5</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E126" s="55">
         <v>18</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F126" s="57">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
@@ -12180,19 +12157,19 @@
       <c r="A127" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="49" t="s">
         <v>271</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C127" s="52" t="s">
         <v>272</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
       </c>
-      <c r="E127" s="5">
+      <c r="E127" s="55">
         <v>4</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F127" s="57">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -12204,19 +12181,19 @@
       <c r="A128" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C128" s="52" t="s">
         <v>275</v>
       </c>
       <c r="D128" s="1">
         <v>3</v>
       </c>
-      <c r="E128" s="5">
-        <v>1</v>
-      </c>
-      <c r="F128" s="5">
+      <c r="E128" s="55">
+        <v>1</v>
+      </c>
+      <c r="F128" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -12228,19 +12205,19 @@
       <c r="A129" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C129" s="52" t="s">
         <v>277</v>
       </c>
       <c r="D129" s="1">
         <v>3</v>
       </c>
-      <c r="E129" s="5">
-        <v>1</v>
-      </c>
-      <c r="F129" s="5">
+      <c r="E129" s="55">
+        <v>1</v>
+      </c>
+      <c r="F129" s="57">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -12252,19 +12229,19 @@
       <c r="A130" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="49" t="s">
         <v>279</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C130" s="52" t="s">
         <v>280</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E130" s="55">
         <v>7</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F130" s="57">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -12276,19 +12253,19 @@
       <c r="A131" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C131" s="52" t="s">
         <v>282</v>
       </c>
       <c r="D131" s="1">
         <v>5</v>
       </c>
-      <c r="E131" s="5">
-        <v>5</v>
-      </c>
-      <c r="F131" s="5">
+      <c r="E131" s="55">
+        <v>5</v>
+      </c>
+      <c r="F131" s="57">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
@@ -12300,15 +12277,15 @@
       <c r="A132" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="50">
         <v>3040</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="53" t="s">
         <v>284</v>
       </c>
       <c r="D132" s="3"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="6">
+      <c r="E132" s="56"/>
+      <c r="F132" s="58">
         <f>SUM(F7:F131)</f>
         <v>2724.85</v>
       </c>
@@ -12328,20 +12305,20 @@
       <c r="A134" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B134" s="52" t="s">
+      <c r="B134" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="C134" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="D134" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E134" s="54" t="s">
         <v>354</v>
       </c>
-      <c r="C134" s="54" t="s">
-        <v>358</v>
-      </c>
-      <c r="D134" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E134" s="56" t="s">
-        <v>356</v>
-      </c>
-      <c r="F134" s="56" t="s">
-        <v>357</v>
+      <c r="F134" s="54" t="s">
+        <v>355</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>10</v>
@@ -12351,19 +12328,19 @@
       <c r="A135" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B135" s="53" t="s">
+      <c r="B135" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="C135" s="55" t="s">
+      <c r="C135" s="52" t="s">
         <v>287</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
       </c>
-      <c r="E135" s="57">
+      <c r="E135" s="55">
         <v>4</v>
       </c>
-      <c r="F135" s="58">
+      <c r="F135" s="57">
         <f ref="F135:F156" t="shared" si="2">+D135*E135</f>
         <v>4</v>
       </c>
@@ -12375,19 +12352,19 @@
       <c r="A136" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B136" s="53" t="s">
+      <c r="B136" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="C136" s="55" t="s">
+      <c r="C136" s="52" t="s">
         <v>289</v>
       </c>
       <c r="D136" s="1">
         <v>5</v>
       </c>
-      <c r="E136" s="57">
+      <c r="E136" s="55">
         <v>4</v>
       </c>
-      <c r="F136" s="58">
+      <c r="F136" s="57">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -12399,19 +12376,19 @@
       <c r="A137" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B137" s="53" t="s">
+      <c r="B137" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="C137" s="55" t="s">
+      <c r="C137" s="52" t="s">
         <v>292</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
       </c>
-      <c r="E137" s="57">
+      <c r="E137" s="55">
         <v>76</v>
       </c>
-      <c r="F137" s="58">
+      <c r="F137" s="57">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
@@ -12423,19 +12400,19 @@
       <c r="A138" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B138" s="53" t="s">
+      <c r="B138" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="C138" s="55" t="s">
+      <c r="C138" s="52" t="s">
         <v>294</v>
       </c>
       <c r="D138" s="1">
         <v>5</v>
       </c>
-      <c r="E138" s="57">
+      <c r="E138" s="55">
         <v>28</v>
       </c>
-      <c r="F138" s="58">
+      <c r="F138" s="57">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
@@ -12447,19 +12424,19 @@
       <c r="A139" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B139" s="53" t="s">
+      <c r="B139" s="49" t="s">
         <v>295</v>
       </c>
-      <c r="C139" s="55" t="s">
+      <c r="C139" s="52" t="s">
         <v>296</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
       </c>
-      <c r="E139" s="57">
+      <c r="E139" s="55">
         <v>9</v>
       </c>
-      <c r="F139" s="58">
+      <c r="F139" s="57">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -12471,19 +12448,19 @@
       <c r="A140" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B140" s="53" t="s">
+      <c r="B140" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="C140" s="55" t="s">
+      <c r="C140" s="52" t="s">
         <v>298</v>
       </c>
       <c r="D140" s="1">
         <v>5</v>
       </c>
-      <c r="E140" s="57">
+      <c r="E140" s="55">
         <v>4</v>
       </c>
-      <c r="F140" s="58">
+      <c r="F140" s="57">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -12495,19 +12472,19 @@
       <c r="A141" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B141" s="53" t="s">
+      <c r="B141" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="C141" s="55" t="s">
+      <c r="C141" s="52" t="s">
         <v>300</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
       </c>
-      <c r="E141" s="57">
+      <c r="E141" s="55">
         <v>152</v>
       </c>
-      <c r="F141" s="58">
+      <c r="F141" s="57">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
@@ -12519,19 +12496,19 @@
       <c r="A142" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B142" s="53" t="s">
+      <c r="B142" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="C142" s="55" t="s">
+      <c r="C142" s="52" t="s">
         <v>302</v>
       </c>
       <c r="D142" s="1">
         <v>5</v>
       </c>
-      <c r="E142" s="57">
+      <c r="E142" s="55">
         <v>111</v>
       </c>
-      <c r="F142" s="58">
+      <c r="F142" s="57">
         <f t="shared" si="2"/>
         <v>555</v>
       </c>
@@ -12543,19 +12520,19 @@
       <c r="A143" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B143" s="53" t="s">
+      <c r="B143" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="C143" s="55" t="s">
+      <c r="C143" s="52" t="s">
         <v>304</v>
       </c>
       <c r="D143" s="1">
         <v>1</v>
       </c>
-      <c r="E143" s="57">
+      <c r="E143" s="55">
         <v>8</v>
       </c>
-      <c r="F143" s="58">
+      <c r="F143" s="57">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -12567,19 +12544,19 @@
       <c r="A144" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B144" s="53" t="s">
+      <c r="B144" s="49" t="s">
         <v>305</v>
       </c>
-      <c r="C144" s="55" t="s">
+      <c r="C144" s="52" t="s">
         <v>306</v>
       </c>
       <c r="D144" s="1">
         <v>3</v>
       </c>
-      <c r="E144" s="57">
+      <c r="E144" s="55">
         <v>2</v>
       </c>
-      <c r="F144" s="58">
+      <c r="F144" s="57">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -12591,19 +12568,19 @@
       <c r="A145" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B145" s="53" t="s">
+      <c r="B145" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="C145" s="55" t="s">
+      <c r="C145" s="52" t="s">
         <v>308</v>
       </c>
       <c r="D145" s="1">
         <v>5</v>
       </c>
-      <c r="E145" s="57">
+      <c r="E145" s="55">
         <v>12</v>
       </c>
-      <c r="F145" s="58">
+      <c r="F145" s="57">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -12615,19 +12592,19 @@
       <c r="A146" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="53" t="s">
+      <c r="B146" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="C146" s="55" t="s">
+      <c r="C146" s="52" t="s">
         <v>310</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
       </c>
-      <c r="E146" s="57">
+      <c r="E146" s="55">
         <v>6</v>
       </c>
-      <c r="F146" s="58">
+      <c r="F146" s="57">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -12639,19 +12616,19 @@
       <c r="A147" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B147" s="53" t="s">
+      <c r="B147" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="C147" s="55" t="s">
+      <c r="C147" s="52" t="s">
         <v>312</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
       </c>
-      <c r="E147" s="57">
+      <c r="E147" s="55">
         <v>8</v>
       </c>
-      <c r="F147" s="58">
+      <c r="F147" s="57">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -12663,19 +12640,19 @@
       <c r="A148" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B148" s="53" t="s">
+      <c r="B148" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="C148" s="55" t="s">
+      <c r="C148" s="52" t="s">
         <v>314</v>
       </c>
       <c r="D148" s="1">
         <v>5</v>
       </c>
-      <c r="E148" s="57">
+      <c r="E148" s="55">
         <v>8</v>
       </c>
-      <c r="F148" s="58">
+      <c r="F148" s="57">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
@@ -12687,19 +12664,19 @@
       <c r="A149" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B149" s="53" t="s">
+      <c r="B149" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="C149" s="55" t="s">
+      <c r="C149" s="52" t="s">
         <v>316</v>
       </c>
       <c r="D149" s="1">
         <v>1</v>
       </c>
-      <c r="E149" s="57">
+      <c r="E149" s="55">
         <v>17</v>
       </c>
-      <c r="F149" s="58">
+      <c r="F149" s="57">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -12711,19 +12688,19 @@
       <c r="A150" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B150" s="53" t="s">
+      <c r="B150" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="C150" s="55" t="s">
+      <c r="C150" s="52" t="s">
         <v>318</v>
       </c>
       <c r="D150" s="1">
         <v>1</v>
       </c>
-      <c r="E150" s="57">
+      <c r="E150" s="55">
         <v>15</v>
       </c>
-      <c r="F150" s="58">
+      <c r="F150" s="57">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -12735,19 +12712,19 @@
       <c r="A151" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B151" s="53" t="s">
+      <c r="B151" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="C151" s="55" t="s">
+      <c r="C151" s="52" t="s">
         <v>320</v>
       </c>
       <c r="D151" s="1">
         <v>5</v>
       </c>
-      <c r="E151" s="57">
+      <c r="E151" s="55">
         <v>18</v>
       </c>
-      <c r="F151" s="58">
+      <c r="F151" s="57">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
@@ -12759,19 +12736,19 @@
       <c r="A152" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B152" s="53" t="s">
+      <c r="B152" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="C152" s="55" t="s">
+      <c r="C152" s="52" t="s">
         <v>322</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
       </c>
-      <c r="E152" s="57">
+      <c r="E152" s="55">
         <v>4</v>
       </c>
-      <c r="F152" s="58">
+      <c r="F152" s="57">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -12783,19 +12760,19 @@
       <c r="A153" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B153" s="53" t="s">
+      <c r="B153" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="C153" s="55" t="s">
+      <c r="C153" s="52" t="s">
         <v>324</v>
       </c>
       <c r="D153" s="1">
         <v>5</v>
       </c>
-      <c r="E153" s="57">
+      <c r="E153" s="55">
         <v>4</v>
       </c>
-      <c r="F153" s="58">
+      <c r="F153" s="57">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -12807,19 +12784,19 @@
       <c r="A154" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B154" s="53" t="s">
+      <c r="B154" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="C154" s="55" t="s">
+      <c r="C154" s="52" t="s">
         <v>327</v>
       </c>
       <c r="D154" s="1">
         <v>1</v>
       </c>
-      <c r="E154" s="57">
-        <v>5</v>
-      </c>
-      <c r="F154" s="58">
+      <c r="E154" s="55">
+        <v>5</v>
+      </c>
+      <c r="F154" s="57">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -12831,19 +12808,19 @@
       <c r="A155" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B155" s="53" t="s">
+      <c r="B155" s="49" t="s">
         <v>328</v>
       </c>
-      <c r="C155" s="55" t="s">
+      <c r="C155" s="52" t="s">
         <v>329</v>
       </c>
       <c r="D155" s="1">
         <v>3</v>
       </c>
-      <c r="E155" s="57">
+      <c r="E155" s="55">
         <v>2</v>
       </c>
-      <c r="F155" s="58">
+      <c r="F155" s="57">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -12855,19 +12832,19 @@
       <c r="A156" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B156" s="53" t="s">
+      <c r="B156" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="C156" s="55" t="s">
+      <c r="C156" s="52" t="s">
         <v>331</v>
       </c>
       <c r="D156" s="1">
         <v>5</v>
       </c>
-      <c r="E156" s="57">
+      <c r="E156" s="55">
         <v>3</v>
       </c>
-      <c r="F156" s="58">
+      <c r="F156" s="57">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -12879,15 +12856,15 @@
       <c r="A157" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="50">
         <v>3040</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="53" t="s">
         <v>284</v>
       </c>
       <c r="D157" s="3"/>
-      <c r="E157" s="4"/>
-      <c r="F157" s="6">
+      <c r="E157" s="56"/>
+      <c r="F157" s="58">
         <f>SUM(F135:F156)</f>
         <v>1276</v>
       </c>
